--- a/resources/TAMID-Comparable-Analysis-Template.xlsx
+++ b/resources/TAMID-Comparable-Analysis-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09734B0-A564-9448-A821-0B1DF20D4647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F432E4A-0547-674B-8AED-964BF3542D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,24 +299,28 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -324,15 +328,18 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -340,34 +347,40 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -770,6 +783,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,10 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="H1:I1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1187,12 +1200,12 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1242,32 +1255,32 @@
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="85" t="s">
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="85" t="s">
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="87"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="91"/>
       <c r="R6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="85" t="s">
+      <c r="T6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="86"/>
-      <c r="V6" s="87"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="91"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1387,13 +1400,13 @@
       <c r="D8" s="15">
         <v>18.899999999999999</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="85">
         <v>0</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="87">
         <v>-820</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="87">
         <v>3140</v>
       </c>
       <c r="H8" s="17" t="e">
@@ -1474,13 +1487,13 @@
       <c r="D9" s="20">
         <v>49.03</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="86">
         <v>0</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="88">
         <v>-2331.15</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="88">
         <v>4357.5119999999997</v>
       </c>
       <c r="H9" s="21" t="e">
@@ -1561,13 +1574,13 @@
       <c r="D10" s="20">
         <v>15.5</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="86">
         <v>0</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="88">
         <v>-483.85500000000002</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="88">
         <v>1079.95</v>
       </c>
       <c r="H10" s="21" t="e">
@@ -1648,13 +1661,13 @@
       <c r="D11" s="20">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="86">
         <v>0</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="88">
         <v>-56.2</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="88">
         <v>2078.1</v>
       </c>
       <c r="H11" s="21" t="e">
@@ -1735,13 +1748,13 @@
       <c r="D12" s="20">
         <v>43.29</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="86">
         <v>0</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="88">
         <v>-84.188000000000002</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="88">
         <v>583.96</v>
       </c>
       <c r="H12" s="21" t="e">
@@ -1822,13 +1835,13 @@
       <c r="D13" s="20">
         <v>72.510000000000005</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="86">
         <v>0</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="88">
         <v>-116.5</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="88">
         <v>2169.4</v>
       </c>
       <c r="H13" s="21" t="e">
@@ -2572,22 +2585,22 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="85" t="s">
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="85" t="s">
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="91"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2625,21 +2638,21 @@
       <c r="H24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="85" t="s">
+      <c r="I24" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="85" t="s">
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="85" t="s">
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="87"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
@@ -41208,6 +41221,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="L23:N23"/>
@@ -41215,10 +41232,6 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="37" orientation="portrait"/>
@@ -41364,21 +41377,21 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="85" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -42180,15 +42193,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="94"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>

--- a/resources/TAMID-Comparable-Analysis-Template.xlsx
+++ b/resources/TAMID-Comparable-Analysis-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F432E4A-0547-674B-8AED-964BF3542D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642803F1-9D59-C049-8F00-4891C9A68A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13520" yWindow="700" windowWidth="13520" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public-Comps" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -797,6 +797,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1399,7 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="95">
         <v>18.899999999999999</v>
       </c>
       <c r="E8" s="85">
@@ -1409,10 +1411,7 @@
       <c r="G8" s="87">
         <v>3140</v>
       </c>
-      <c r="H8" s="17" t="e">
-        <f>+E8+F8+G8+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H8" s="85"/>
       <c r="I8" s="18">
         <v>10327</v>
       </c>
@@ -1484,7 +1483,7 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="96">
         <v>49.03</v>
       </c>
       <c r="E9" s="86">
@@ -1496,10 +1495,7 @@
       <c r="G9" s="88">
         <v>4357.5119999999997</v>
       </c>
-      <c r="H9" s="21" t="e">
-        <f>+E9+F9+G9+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H9" s="86"/>
       <c r="I9" s="16">
         <v>15643.6</v>
       </c>
@@ -1571,7 +1567,7 @@
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="96">
         <v>15.5</v>
       </c>
       <c r="E10" s="86">
@@ -1583,10 +1579,7 @@
       <c r="G10" s="88">
         <v>1079.95</v>
       </c>
-      <c r="H10" s="21" t="e">
-        <f>+E10+F10+G10+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H10" s="86"/>
       <c r="I10" s="16">
         <v>4813.3999999999996</v>
       </c>
@@ -1658,7 +1651,7 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="96">
         <v>4.3499999999999996</v>
       </c>
       <c r="E11" s="86">
@@ -1670,10 +1663,7 @@
       <c r="G11" s="88">
         <v>2078.1</v>
       </c>
-      <c r="H11" s="21" t="e">
-        <f>+E11+F11+G11+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H11" s="86"/>
       <c r="I11" s="16">
         <v>6263.6</v>
       </c>
@@ -1745,7 +1735,7 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="96">
         <v>43.29</v>
       </c>
       <c r="E12" s="86">
@@ -1757,10 +1747,7 @@
       <c r="G12" s="88">
         <v>583.96</v>
       </c>
-      <c r="H12" s="21" t="e">
-        <f>+E12+F12+G12+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H12" s="86"/>
       <c r="I12" s="16">
         <v>2819.7</v>
       </c>
@@ -1832,7 +1819,7 @@
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="96">
         <v>72.510000000000005</v>
       </c>
       <c r="E13" s="86">
@@ -1844,10 +1831,7 @@
       <c r="G13" s="88">
         <v>2169.4</v>
       </c>
-      <c r="H13" s="21" t="e">
-        <f>+E13+F13+G13+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H13" s="86"/>
       <c r="I13" s="16">
         <v>8679</v>
       </c>
@@ -1966,9 +1950,9 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="25" t="e">
+      <c r="H15" s="25">
         <f t="shared" ref="H15:V15" si="8">MAX(H8:H13)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I15" s="25">
         <f t="shared" si="8"/>
@@ -2060,7 +2044,7 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30" t="e">
         <f t="shared" ref="H16:V16" si="9">QUARTILE(H8:H13,3)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="9"/>
@@ -2152,7 +2136,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35" t="e">
         <f t="shared" ref="H17:V17" si="10">MEDIAN(H8:H13)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="I17" s="35">
         <f t="shared" si="10"/>
@@ -2244,7 +2228,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30" t="e">
         <f t="shared" ref="H18:V18" si="11">QUARTILE(H8:H13,1)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="11"/>
@@ -2334,9 +2318,9 @@
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="41" t="e">
+      <c r="H19" s="41">
         <f t="shared" ref="H19:V19" si="12">MIN(H8:H13)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I19" s="41">
         <f t="shared" si="12"/>
@@ -2763,33 +2747,33 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="17" t="e">
+      <c r="H26" s="17">
         <f t="shared" ref="H26:H31" si="16">+H8</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I26" s="51" t="str">
+      <c r="I26" s="51">
         <f t="shared" ref="I26:N26" si="17">IFERROR(IF(OR(+$H8/I8&lt;0,+$H8/I8&gt;=100),"NM",+$H8/I8),"N/A")</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="J26" s="51" t="str">
+      <c r="J26" s="51">
         <f t="shared" si="17"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="K26" s="51" t="str">
+      <c r="K26" s="51">
         <f t="shared" si="17"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="L26" s="51" t="str">
+      <c r="L26" s="51">
         <f t="shared" si="17"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="M26" s="51" t="str">
+      <c r="M26" s="51">
         <f t="shared" si="17"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="N26" s="51" t="str">
+      <c r="N26" s="51">
         <f t="shared" si="17"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="O26" s="51">
         <f t="shared" ref="O26:Q26" si="18">IFERROR(IF(OR(+$E8/O8&lt;0,+$E8/O8&gt;=100),"NM",+$E8/O8),"N/A")</f>
@@ -2841,33 +2825,33 @@
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="21" t="e">
+      <c r="H27" s="21">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I27" s="51" t="str">
+      <c r="I27" s="51">
         <f t="shared" ref="I27:N27" si="20">IFERROR(IF(OR(+$H9/I9&lt;0,+$H9/I9&gt;=100),"NM",+$H9/I9),"N/A")</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="J27" s="51" t="str">
+      <c r="J27" s="51">
         <f t="shared" si="20"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="K27" s="51" t="str">
+      <c r="K27" s="51">
         <f t="shared" si="20"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="L27" s="51" t="str">
+      <c r="L27" s="51">
         <f t="shared" si="20"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="M27" s="51" t="str">
+      <c r="M27" s="51">
         <f t="shared" si="20"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="N27" s="51" t="str">
+      <c r="N27" s="51">
         <f t="shared" si="20"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="O27" s="51">
         <f t="shared" ref="O27:Q27" si="21">IFERROR(IF(OR(+$E9/O9&lt;0,+$E9/O9&gt;=100),"NM",+$E9/O9),"N/A")</f>
@@ -2919,33 +2903,33 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="21" t="e">
+      <c r="H28" s="21">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I28" s="51" t="str">
+      <c r="I28" s="51">
         <f t="shared" ref="I28:N28" si="23">IFERROR(IF(OR(+$H10/I10&lt;0,+$H10/I10&gt;=100),"NM",+$H10/I10),"N/A")</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="J28" s="51" t="str">
+      <c r="J28" s="51">
         <f t="shared" si="23"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="K28" s="51" t="str">
+      <c r="K28" s="51">
         <f t="shared" si="23"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="L28" s="51" t="str">
+      <c r="L28" s="51">
         <f t="shared" si="23"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="M28" s="51" t="str">
+      <c r="M28" s="51">
         <f t="shared" si="23"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="N28" s="51" t="str">
+      <c r="N28" s="51">
         <f t="shared" si="23"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="O28" s="51">
         <f t="shared" ref="O28:Q28" si="24">IFERROR(IF(OR(+$E10/O10&lt;0,+$E10/O10&gt;=100),"NM",+$E10/O10),"N/A")</f>
@@ -2997,33 +2981,33 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="21" t="e">
+      <c r="H29" s="21">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I29" s="51" t="str">
+      <c r="I29" s="51">
         <f t="shared" ref="I29:N29" si="26">IFERROR(IF(OR(+$H11/I11&lt;0,+$H11/I11&gt;=100),"NM",+$H11/I11),"N/A")</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="J29" s="51" t="str">
+      <c r="J29" s="51">
         <f t="shared" si="26"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="K29" s="51" t="str">
+      <c r="K29" s="51">
         <f t="shared" si="26"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="L29" s="51" t="str">
+      <c r="L29" s="51">
         <f t="shared" si="26"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="M29" s="51" t="str">
+      <c r="M29" s="51">
         <f t="shared" si="26"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="N29" s="51" t="str">
+      <c r="N29" s="51">
         <f t="shared" si="26"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="O29" s="51">
         <f t="shared" ref="O29:Q29" si="27">IFERROR(IF(OR(+$E11/O11&lt;0,+$E11/O11&gt;=100),"NM",+$E11/O11),"N/A")</f>
@@ -3075,33 +3059,33 @@
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="21" t="e">
+      <c r="H30" s="21">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I30" s="51" t="str">
+      <c r="I30" s="51">
         <f t="shared" ref="I30:N30" si="29">IFERROR(IF(OR(+$H12/I12&lt;0,+$H12/I12&gt;=100),"NM",+$H12/I12),"N/A")</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="J30" s="51" t="str">
+      <c r="J30" s="51">
         <f t="shared" si="29"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="K30" s="51" t="str">
+      <c r="K30" s="51">
         <f t="shared" si="29"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="L30" s="51" t="str">
+      <c r="L30" s="51">
         <f t="shared" si="29"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="M30" s="51" t="str">
+      <c r="M30" s="51">
         <f t="shared" si="29"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="N30" s="51" t="str">
+      <c r="N30" s="51">
         <f t="shared" si="29"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="O30" s="51">
         <f t="shared" ref="O30:Q30" si="30">IFERROR(IF(OR(+$E12/O12&lt;0,+$E12/O12&gt;=100),"NM",+$E12/O12),"N/A")</f>
@@ -3153,33 +3137,33 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="21" t="e">
+      <c r="H31" s="21">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I31" s="51" t="str">
+      <c r="I31" s="51">
         <f t="shared" ref="I31:N31" si="32">IFERROR(IF(OR(+$H13/I13&lt;0,+$H13/I13&gt;=100),"NM",+$H13/I13),"N/A")</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="J31" s="51" t="str">
+      <c r="J31" s="51">
         <f t="shared" si="32"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="K31" s="51" t="str">
+      <c r="K31" s="51">
         <f t="shared" si="32"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="L31" s="51" t="str">
+      <c r="L31" s="51">
         <f t="shared" si="32"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="M31" s="51" t="str">
+      <c r="M31" s="51">
         <f t="shared" si="32"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
-      <c r="N31" s="51" t="str">
+      <c r="N31" s="51">
         <f t="shared" si="32"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="O31" s="51">
         <f t="shared" ref="O31:Q31" si="33">IFERROR(IF(OR(+$E13/O13&lt;0,+$E13/O13&gt;=100),"NM",+$E13/O13),"N/A")</f>
@@ -3266,9 +3250,9 @@
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="25" t="e">
+      <c r="H33" s="25">
         <f t="shared" ref="H33:Q33" si="34">MAX(H26:H31)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I33" s="52">
         <f t="shared" si="34"/>
@@ -3340,33 +3324,33 @@
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="30" t="e">
+      <c r="H34" s="30">
         <f t="shared" ref="H34:Q34" si="35">QUARTILE(H26:H31,3)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I34" s="51" t="e">
+      <c r="I34" s="51">
         <f t="shared" si="35"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="J34" s="51" t="e">
+      <c r="J34" s="51">
         <f t="shared" si="35"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K34" s="51" t="e">
+      <c r="K34" s="51">
         <f t="shared" si="35"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L34" s="51" t="e">
+      <c r="L34" s="51">
         <f t="shared" si="35"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="M34" s="51" t="e">
+      <c r="M34" s="51">
         <f t="shared" si="35"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="N34" s="51" t="e">
+      <c r="N34" s="51">
         <f t="shared" si="35"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="O34" s="51">
         <f t="shared" si="35"/>
@@ -3414,33 +3398,33 @@
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="35" t="e">
+      <c r="H35" s="35">
         <f t="shared" ref="H35:Q35" si="36">MEDIAN(H26:H31)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I35" s="55" t="e">
+      <c r="I35" s="55">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="J35" s="55" t="e">
+      <c r="J35" s="55">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K35" s="55" t="e">
+      <c r="K35" s="55">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L35" s="55" t="e">
+      <c r="L35" s="55">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="M35" s="55" t="e">
+      <c r="M35" s="55">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="N35" s="55" t="e">
+      <c r="N35" s="55">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="O35" s="55">
         <f t="shared" si="36"/>
@@ -3488,33 +3472,33 @@
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="30" t="e">
+      <c r="H36" s="30">
         <f t="shared" ref="H36:Q36" si="37">QUARTILE(H26:H31,1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I36" s="51" t="e">
+      <c r="I36" s="51">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="J36" s="51" t="e">
+      <c r="J36" s="51">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K36" s="51" t="e">
+      <c r="K36" s="51">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L36" s="51" t="e">
+      <c r="L36" s="51">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="M36" s="51" t="e">
+      <c r="M36" s="51">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="N36" s="51" t="e">
+      <c r="N36" s="51">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="O36" s="51">
         <f t="shared" si="37"/>
@@ -3562,9 +3546,9 @@
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
-      <c r="H37" s="41" t="e">
+      <c r="H37" s="41">
         <f t="shared" ref="H37:Q37" si="38">MIN(H26:H31)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I37" s="57">
         <f t="shared" si="38"/>
@@ -41221,17 +41205,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="T6:V6"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="37" orientation="portrait"/>
@@ -41243,7 +41227,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41641,14 +41625,14 @@
         <f t="array" ref="C12:G20">TRANSPOSE('Public-Comps'!I33:Q37)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="D12" s="66">
+        <v>0</v>
       </c>
-      <c r="E12" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="E12" s="66">
+        <v>0</v>
       </c>
-      <c r="F12" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="F12" s="66">
+        <v>0</v>
       </c>
       <c r="G12" s="66">
         <v>0</v>
@@ -41661,17 +41645,17 @@
         <f t="shared" ref="I12:M17" si="0">(+I24+SUM($E$23:$E$32))/Diluted_Shares</f>
         <v>-6.4268212563580249</v>
       </c>
-      <c r="J12" s="68" t="e">
+      <c r="J12" s="68">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="K12" s="68" t="e">
+      <c r="K12" s="68">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="L12" s="68" t="e">
+      <c r="L12" s="68">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
       <c r="M12" s="68">
         <f t="shared" si="0"/>
@@ -41700,14 +41684,14 @@
       <c r="C13" s="66">
         <v>0</v>
       </c>
-      <c r="D13" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="D13" s="66">
+        <v>0</v>
       </c>
-      <c r="E13" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="E13" s="66">
+        <v>0</v>
       </c>
-      <c r="F13" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="F13" s="66">
+        <v>0</v>
       </c>
       <c r="G13" s="66">
         <v>0</v>
@@ -41719,17 +41703,17 @@
         <f t="shared" si="0"/>
         <v>-6.4268212563580249</v>
       </c>
-      <c r="J13" s="29" t="e">
+      <c r="J13" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="K13" s="29" t="e">
+      <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="L13" s="29" t="e">
+      <c r="L13" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
       <c r="M13" s="29">
         <f t="shared" si="0"/>
@@ -41758,14 +41742,14 @@
       <c r="C14" s="66">
         <v>0</v>
       </c>
-      <c r="D14" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="D14" s="66">
+        <v>0</v>
       </c>
-      <c r="E14" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="E14" s="66">
+        <v>0</v>
       </c>
-      <c r="F14" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="F14" s="66">
+        <v>0</v>
       </c>
       <c r="G14" s="66">
         <v>0</v>
@@ -41777,17 +41761,17 @@
         <f t="shared" si="0"/>
         <v>-6.4268212563580249</v>
       </c>
-      <c r="J14" s="29" t="e">
+      <c r="J14" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="K14" s="29" t="e">
+      <c r="K14" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="L14" s="29" t="e">
+      <c r="L14" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
       <c r="M14" s="29">
         <f t="shared" si="0"/>
@@ -41815,14 +41799,14 @@
       <c r="C15" s="66">
         <v>0</v>
       </c>
-      <c r="D15" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="D15" s="66">
+        <v>0</v>
       </c>
-      <c r="E15" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="E15" s="66">
+        <v>0</v>
       </c>
-      <c r="F15" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="F15" s="66">
+        <v>0</v>
       </c>
       <c r="G15" s="66">
         <v>0</v>
@@ -41834,17 +41818,17 @@
         <f t="shared" si="0"/>
         <v>-6.4268212563580249</v>
       </c>
-      <c r="J15" s="29" t="e">
+      <c r="J15" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="K15" s="29" t="e">
+      <c r="K15" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="L15" s="29" t="e">
+      <c r="L15" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="0"/>
@@ -41873,14 +41857,14 @@
       <c r="C16" s="66">
         <v>0</v>
       </c>
-      <c r="D16" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="D16" s="66">
+        <v>0</v>
       </c>
-      <c r="E16" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="E16" s="66">
+        <v>0</v>
       </c>
-      <c r="F16" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="F16" s="66">
+        <v>0</v>
       </c>
       <c r="G16" s="66">
         <v>0</v>
@@ -41892,17 +41876,17 @@
         <f t="shared" si="0"/>
         <v>-6.4268212563580249</v>
       </c>
-      <c r="J16" s="29" t="e">
+      <c r="J16" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="K16" s="29" t="e">
+      <c r="K16" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="L16" s="29" t="e">
+      <c r="L16" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
       <c r="M16" s="29">
         <f t="shared" si="0"/>
@@ -41931,14 +41915,14 @@
       <c r="C17" s="66">
         <v>0</v>
       </c>
-      <c r="D17" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="D17" s="66">
+        <v>0</v>
       </c>
-      <c r="E17" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="E17" s="66">
+        <v>0</v>
       </c>
-      <c r="F17" s="66" t="e">
-        <v>#NUM!</v>
+      <c r="F17" s="66">
+        <v>0</v>
       </c>
       <c r="G17" s="66">
         <v>0</v>
@@ -41950,17 +41934,17 @@
         <f t="shared" si="0"/>
         <v>-6.4268212563580249</v>
       </c>
-      <c r="J17" s="29" t="e">
+      <c r="J17" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="K17" s="29" t="e">
+      <c r="K17" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
-      <c r="L17" s="29" t="e">
+      <c r="L17" s="29">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-6.4268212563580249</v>
       </c>
       <c r="M17" s="29">
         <f t="shared" si="0"/>
@@ -42267,17 +42251,17 @@
         <f t="shared" ref="I24:I32" si="2">+$H12*G12</f>
         <v>0</v>
       </c>
-      <c r="J24" s="17" t="e">
+      <c r="J24" s="17">
         <f t="shared" ref="J24:J32" si="3">+$H12*F12</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K24" s="17" t="e">
+      <c r="K24" s="17">
         <f t="shared" ref="K24:K32" si="4">+$H12*E12</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L24" s="17" t="e">
+      <c r="L24" s="17">
         <f t="shared" ref="L24:L32" si="5">+$H12*D12</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" ref="M24:M32" si="6">+$H12*C12</f>
@@ -42316,17 +42300,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="21" t="e">
+      <c r="J25" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K25" s="21" t="e">
+      <c r="K25" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L25" s="21" t="e">
+      <c r="L25" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M25" s="21">
         <f t="shared" si="6"/>
@@ -42365,17 +42349,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="21" t="e">
+      <c r="J26" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K26" s="21" t="e">
+      <c r="K26" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L26" s="21" t="e">
+      <c r="L26" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M26" s="21">
         <f t="shared" si="6"/>
@@ -42414,17 +42398,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="21" t="e">
+      <c r="J27" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K27" s="21" t="e">
+      <c r="K27" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L27" s="21" t="e">
+      <c r="L27" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M27" s="21">
         <f t="shared" si="6"/>
@@ -42463,17 +42447,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="21" t="e">
+      <c r="J28" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K28" s="21" t="e">
+      <c r="K28" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L28" s="21" t="e">
+      <c r="L28" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="6"/>
@@ -42512,17 +42496,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="21" t="e">
+      <c r="J29" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="K29" s="21" t="e">
+      <c r="K29" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
-      <c r="L29" s="21" t="e">
+      <c r="L29" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M29" s="21">
         <f t="shared" si="6"/>

--- a/resources/TAMID-Comparable-Analysis-Template.xlsx
+++ b/resources/TAMID-Comparable-Analysis-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642803F1-9D59-C049-8F00-4891C9A68A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F0BA0-B3C5-2440-AE8D-13F54C88FD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="700" windowWidth="13520" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public-Comps" sheetId="1" r:id="rId1"/>
@@ -787,6 +787,8 @@
     <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,8 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:AK1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1257,32 +1257,32 @@
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="89" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="89" t="s">
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="89" t="s">
+      <c r="T6" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="91"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="89">
         <v>18.899999999999999</v>
       </c>
       <c r="E8" s="85">
@@ -1483,7 +1483,7 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="90">
         <v>49.03</v>
       </c>
       <c r="E9" s="86">
@@ -1567,7 +1567,7 @@
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="90">
         <v>15.5</v>
       </c>
       <c r="E10" s="86">
@@ -1651,7 +1651,7 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="90">
         <v>4.3499999999999996</v>
       </c>
       <c r="E11" s="86">
@@ -1735,7 +1735,7 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="90">
         <v>43.29</v>
       </c>
       <c r="E12" s="86">
@@ -1819,7 +1819,7 @@
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="90">
         <v>72.510000000000005</v>
       </c>
       <c r="E13" s="86">
@@ -2569,22 +2569,22 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="89" t="s">
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="89" t="s">
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2622,21 +2622,21 @@
       <c r="H24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="89" t="s">
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="90"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="89" t="s">
+      <c r="M24" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="93"/>
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
@@ -41205,17 +41205,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:V6"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="37" orientation="portrait"/>
@@ -41361,21 +41361,21 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="89" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -42177,15 +42177,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="92" t="s">
+      <c r="G22" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="94"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
